--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3966.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3966.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187693304172371</v>
+        <v>2.323867321014404</v>
       </c>
       <c r="B1">
-        <v>2.232479391811324</v>
+        <v>2.632214546203613</v>
       </c>
       <c r="C1">
-        <v>5.861735975776293</v>
+        <v>2.587695598602295</v>
       </c>
       <c r="D1">
-        <v>3.49007302199999</v>
+        <v>1.949337482452393</v>
       </c>
       <c r="E1">
-        <v>1.430480637757219</v>
+        <v>0.5532294511795044</v>
       </c>
     </row>
   </sheetData>
